--- a/xlsx/既得利益_intext.xlsx
+++ b/xlsx/既得利益_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>金權政治</t>
+    <t>金权政治</t>
   </si>
   <si>
     <t>政策_政策_公共政策_既得利益</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%9B%8A%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>利益衝突</t>
+    <t>利益冲突</t>
   </si>
 </sst>
 </file>
